--- a/Базовая таблица_для Евгения.xlsx
+++ b/Базовая таблица_для Евгения.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28341B84-972A-43B4-8B99-25E71FA48629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43309D14-1770-4165-9EA4-F378043218FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase_0" localSheetId="0">sheet!$A$1:$AT$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$A$1:$AT$77</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">sheet!$A$1:$AU$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$A$1:$AU$77</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -939,6623 +939,6619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ77"/>
+  <dimension ref="A1:AMK77"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="15.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="20" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15" style="1" customWidth="1"/>
-    <col min="30" max="30" width="54.140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="9.85546875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.42578125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="65.85546875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5" style="1" customWidth="1"/>
-    <col min="40" max="46" width="20" style="1" customWidth="1"/>
-    <col min="47" max="1024" width="8.7109375" style="1"/>
+    <col min="2" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="15.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" customWidth="1"/>
+    <col min="31" max="31" width="54.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="65.85546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="8" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12" style="1" customWidth="1"/>
+    <col min="40" max="40" width="5" style="1" customWidth="1"/>
+    <col min="41" max="47" width="20" style="1" customWidth="1"/>
+    <col min="48" max="1025" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="126" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="126" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="2">
-        <v>2</v>
-      </c>
       <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
         <v>3</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>6</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK2" s="4"/>
       <c r="AL2" s="2">
         <v>2</v>
       </c>
       <c r="AM2" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>4</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>3</v>
       </c>
-      <c r="R3" s="2">
-        <v>2</v>
-      </c>
       <c r="S3" s="2">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2">
         <v>6</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AL3" s="2">
         <v>3</v>
       </c>
-      <c r="AL3" s="2">
-        <v>1</v>
-      </c>
       <c r="AM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="2">
         <v>3</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="2">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="2">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>5</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
       <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>5</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AL4" s="2">
         <v>5</v>
       </c>
-      <c r="AL4" s="2">
-        <v>1</v>
-      </c>
       <c r="AM4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="2">
         <v>5</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>17</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>5</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>5</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AL5" s="2">
         <v>5</v>
       </c>
-      <c r="AL5" s="2">
-        <v>1</v>
-      </c>
       <c r="AM5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="2">
         <v>5</v>
       </c>
-      <c r="AN5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="2">
-        <v>2</v>
-      </c>
       <c r="R6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="2">
-        <v>2</v>
-      </c>
-      <c r="T6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="V6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK6" s="4"/>
       <c r="AL6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO6" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AP6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:46" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>3</v>
       </c>
       <c r="R7" s="2">
         <v>3</v>
       </c>
       <c r="S7" s="2">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2">
         <v>9</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="2">
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="2">
         <v>3</v>
       </c>
-      <c r="AL7" s="2">
-        <v>2</v>
-      </c>
       <c r="AM7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="2">
         <v>6</v>
       </c>
-      <c r="AN7" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" s="2">
-        <v>4</v>
-      </c>
       <c r="R8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S8" s="2">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2">
         <v>8</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AK8" s="2">
-        <v>4</v>
-      </c>
       <c r="AL8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM8" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>4</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="2">
-        <v>4</v>
-      </c>
       <c r="R9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2">
         <v>8</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AK9" s="2">
-        <v>4</v>
-      </c>
       <c r="AL9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>4</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="2">
-        <v>4</v>
-      </c>
       <c r="R10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S10" s="2">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2">
         <v>8</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK10" s="2">
-        <v>4</v>
-      </c>
       <c r="AL10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM10" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>4</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q11" s="2">
-        <v>4</v>
-      </c>
       <c r="R11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
         <v>8</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK11" s="2">
-        <v>4</v>
-      </c>
       <c r="AL11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM11" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>4</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q12" s="2">
-        <v>4</v>
-      </c>
       <c r="R12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
         <v>8</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Z12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AE12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AF12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AK12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK12" s="2">
-        <v>4</v>
-      </c>
       <c r="AL12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM12" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>4</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="2">
-        <v>4</v>
-      </c>
       <c r="R13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13" s="2">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2">
         <v>8</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AE13" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="2">
-        <v>4</v>
-      </c>
+      <c r="AK13" s="4"/>
       <c r="AL13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM13" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN13" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>4</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>26</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="2">
-        <v>2</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q14" s="2">
-        <v>2</v>
-      </c>
       <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
         <v>3</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="2">
         <v>6</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AC14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK14" s="4"/>
       <c r="AL14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO14" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AP14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:46" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q15" s="2">
-        <v>2</v>
-      </c>
       <c r="R15" s="2">
+        <v>2</v>
+      </c>
+      <c r="S15" s="2">
         <v>3</v>
       </c>
-      <c r="S15" s="2">
+      <c r="T15" s="2">
         <v>6</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AC15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AD15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK15" s="4"/>
       <c r="AL15" s="2">
         <v>2</v>
       </c>
       <c r="AM15" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN15" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>4</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>28</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="2">
-        <v>2</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q16" s="2">
-        <v>2</v>
-      </c>
       <c r="R16" s="2">
+        <v>2</v>
+      </c>
+      <c r="S16" s="2">
         <v>3</v>
       </c>
-      <c r="S16" s="2">
+      <c r="T16" s="2">
         <v>6</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK16" s="4"/>
       <c r="AL16" s="2">
         <v>2</v>
       </c>
       <c r="AM16" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN16" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>4</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>29</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="2">
-        <v>2</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="2">
-        <v>2</v>
-      </c>
       <c r="R17" s="2">
+        <v>2</v>
+      </c>
+      <c r="S17" s="2">
         <v>3</v>
       </c>
-      <c r="S17" s="2">
+      <c r="T17" s="2">
         <v>6</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AC17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AD17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AE17" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK17" s="4"/>
       <c r="AL17" s="2">
         <v>2</v>
       </c>
       <c r="AM17" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN17" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>4</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>30</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="2">
-        <v>2</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q18" s="2">
-        <v>2</v>
-      </c>
       <c r="R18" s="2">
+        <v>2</v>
+      </c>
+      <c r="S18" s="2">
         <v>3</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <v>6</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AB18" s="2" t="s">
+      <c r="AC18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AE18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK18" s="4"/>
       <c r="AL18" s="2">
         <v>2</v>
       </c>
       <c r="AM18" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>4</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>31</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <v>5</v>
       </c>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
       <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
         <v>5</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF19" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AG19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AH19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AJ19" s="2" t="s">
+      <c r="AK19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AL19" s="2">
         <v>5</v>
       </c>
-      <c r="AL19" s="2">
-        <v>1</v>
-      </c>
       <c r="AM19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="2">
         <v>5</v>
       </c>
-      <c r="AN19" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>32</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>5</v>
       </c>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
       <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
         <v>5</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AG20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AH20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AI20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI20" s="2" t="s">
+      <c r="AJ20" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AJ20" s="2" t="s">
+      <c r="AK20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AL20" s="2">
         <v>5</v>
       </c>
-      <c r="AL20" s="2">
-        <v>1</v>
-      </c>
       <c r="AM20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="2">
         <v>5</v>
       </c>
-      <c r="AN20" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="2">
-        <v>2</v>
-      </c>
       <c r="R21" s="2">
+        <v>2</v>
+      </c>
+      <c r="S21" s="2">
         <v>3</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <v>6</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK21" s="4"/>
       <c r="AL21" s="2">
         <v>2</v>
       </c>
       <c r="AM21" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>4</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <v>3</v>
       </c>
-      <c r="R22" s="2">
-        <v>2</v>
-      </c>
       <c r="S22" s="2">
+        <v>2</v>
+      </c>
+      <c r="T22" s="2">
         <v>6</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AF22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF22" s="2" t="s">
+      <c r="AG22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG22" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI22" s="2" t="s">
+      <c r="AJ22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ22" s="2" t="s">
+      <c r="AK22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AL22" s="2">
         <v>3</v>
       </c>
-      <c r="AL22" s="2">
-        <v>1</v>
-      </c>
       <c r="AM22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="2">
         <v>3</v>
       </c>
-      <c r="AN22" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>16</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="2">
-        <v>4</v>
-      </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="2">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="2">
-        <v>1</v>
-      </c>
       <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
         <v>5</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="AL23" s="2">
         <v>5</v>
       </c>
-      <c r="AL23" s="2">
-        <v>1</v>
-      </c>
       <c r="AM23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="2">
         <v>5</v>
       </c>
-      <c r="AN23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>17</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>17</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <v>5</v>
       </c>
-      <c r="R24" s="2">
-        <v>1</v>
-      </c>
       <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
         <v>5</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AL24" s="2">
         <v>5</v>
       </c>
-      <c r="AL24" s="2">
-        <v>1</v>
-      </c>
       <c r="AM24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="2">
         <v>5</v>
       </c>
-      <c r="AN24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q25" s="2">
-        <v>2</v>
-      </c>
       <c r="R25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="2">
-        <v>2</v>
-      </c>
-      <c r="T25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2">
+        <v>2</v>
+      </c>
+      <c r="U25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="V25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="X25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="Y25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Z25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB25" s="2" t="s">
+      <c r="AC25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AE25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK25" s="4"/>
       <c r="AL25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM25" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AP25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:42" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>3</v>
       </c>
       <c r="R26" s="2">
         <v>3</v>
       </c>
       <c r="S26" s="2">
+        <v>3</v>
+      </c>
+      <c r="T26" s="2">
         <v>9</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="V26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="W26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="X26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X26" s="2" t="s">
+      <c r="Y26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" s="2" t="s">
+      <c r="Z26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB26" s="2" t="s">
+      <c r="AC26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AE26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="2">
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="2">
         <v>3</v>
       </c>
-      <c r="AL26" s="2">
-        <v>2</v>
-      </c>
       <c r="AM26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="2">
         <v>6</v>
       </c>
-      <c r="AN26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP26" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q27" s="2">
-        <v>4</v>
-      </c>
       <c r="R27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S27" s="2">
+        <v>2</v>
+      </c>
+      <c r="T27" s="2">
         <v>8</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="V27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="W27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AF27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF27" s="2" t="s">
+      <c r="AG27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG27" s="2" t="s">
+      <c r="AH27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH27" s="2" t="s">
+      <c r="AI27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI27" s="2" t="s">
+      <c r="AJ27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AJ27" s="2" t="s">
+      <c r="AK27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AK27" s="2">
-        <v>4</v>
-      </c>
       <c r="AL27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM27" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN27" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>4</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q28" s="2">
-        <v>4</v>
-      </c>
       <c r="R28" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S28" s="2">
+        <v>2</v>
+      </c>
+      <c r="T28" s="2">
         <v>8</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="W28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AF28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF28" s="2" t="s">
+      <c r="AG28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG28" s="2" t="s">
+      <c r="AH28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH28" s="2" t="s">
+      <c r="AI28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI28" s="2" t="s">
+      <c r="AJ28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AJ28" s="2" t="s">
+      <c r="AK28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AK28" s="2">
-        <v>4</v>
-      </c>
       <c r="AL28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM28" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN28" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>4</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>22</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q29" s="2">
-        <v>4</v>
-      </c>
       <c r="R29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S29" s="2">
+        <v>2</v>
+      </c>
+      <c r="T29" s="2">
         <v>8</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="W29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W29" s="2" t="s">
+      <c r="X29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="X29" s="2" t="s">
+      <c r="Y29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Z29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB29" s="2" t="s">
+      <c r="AC29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="AD29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AE29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE29" s="2" t="s">
+      <c r="AF29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF29" s="2" t="s">
+      <c r="AG29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG29" s="2" t="s">
+      <c r="AH29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH29" s="2" t="s">
+      <c r="AI29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI29" s="2" t="s">
+      <c r="AJ29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ29" s="2" t="s">
+      <c r="AK29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK29" s="2">
-        <v>4</v>
-      </c>
       <c r="AL29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM29" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN29" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>4</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>23</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q30" s="2">
-        <v>4</v>
-      </c>
       <c r="R30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S30" s="2">
+        <v>2</v>
+      </c>
+      <c r="T30" s="2">
         <v>8</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="X30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X30" s="2" t="s">
+      <c r="Y30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Y30" s="2" t="s">
+      <c r="Z30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB30" s="2" t="s">
+      <c r="AC30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD30" s="2" t="s">
+      <c r="AE30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE30" s="2" t="s">
+      <c r="AF30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF30" s="2" t="s">
+      <c r="AG30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG30" s="2" t="s">
+      <c r="AH30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH30" s="2" t="s">
+      <c r="AI30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI30" s="2" t="s">
+      <c r="AJ30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ30" s="2" t="s">
+      <c r="AK30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK30" s="2">
-        <v>4</v>
-      </c>
       <c r="AL30" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM30" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN30" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>4</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>24</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q31" s="2">
-        <v>4</v>
-      </c>
       <c r="R31" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S31" s="2">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2">
         <v>8</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="U31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="V31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="W31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W31" s="2" t="s">
+      <c r="X31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="X31" s="2" t="s">
+      <c r="Y31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y31" s="2" t="s">
+      <c r="Z31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AB31" s="2" t="s">
+      <c r="AC31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="AD31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AD31" s="2" t="s">
+      <c r="AE31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AF31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AG31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG31" s="2" t="s">
+      <c r="AH31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AI31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI31" s="2" t="s">
+      <c r="AJ31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ31" s="2" t="s">
+      <c r="AK31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK31" s="2">
-        <v>4</v>
-      </c>
       <c r="AL31" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM31" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN31" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>4</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>25</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="2">
-        <v>4</v>
-      </c>
       <c r="R32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S32" s="2">
+        <v>2</v>
+      </c>
+      <c r="T32" s="2">
         <v>8</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="U32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="V32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="W32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AD32" s="2" t="s">
+      <c r="AE32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="2">
-        <v>4</v>
-      </c>
+      <c r="AK32" s="4"/>
       <c r="AL32" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM32" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN32" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>4</v>
       </c>
       <c r="AO32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>26</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K33" s="2">
-        <v>2</v>
-      </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="2">
+        <v>2</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q33" s="2">
-        <v>2</v>
-      </c>
       <c r="R33" s="2">
+        <v>2</v>
+      </c>
+      <c r="S33" s="2">
         <v>3</v>
       </c>
-      <c r="S33" s="2">
+      <c r="T33" s="2">
         <v>6</v>
       </c>
-      <c r="T33" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="X33" s="2" t="s">
+      <c r="Y33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Y33" s="2" t="s">
+      <c r="Z33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AB33" s="2" t="s">
+      <c r="AC33" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AC33" s="2" t="s">
+      <c r="AD33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AD33" s="2" t="s">
+      <c r="AE33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK33" s="4"/>
       <c r="AL33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM33" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO33" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AP33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ33" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>27</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="2">
-        <v>2</v>
-      </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="2">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q34" s="2">
-        <v>2</v>
-      </c>
       <c r="R34" s="2">
+        <v>2</v>
+      </c>
+      <c r="S34" s="2">
         <v>3</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T34" s="2">
         <v>6</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X34" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="X34" s="2" t="s">
+      <c r="Y34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Y34" s="2" t="s">
+      <c r="Z34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AB34" s="2" t="s">
+      <c r="AC34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="AD34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AD34" s="4" t="s">
+      <c r="AE34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK34" s="4"/>
       <c r="AL34" s="2">
         <v>2</v>
       </c>
       <c r="AM34" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN34" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>4</v>
       </c>
       <c r="AO34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>28</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K35" s="2">
-        <v>2</v>
-      </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="2">
+        <v>2</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q35" s="2">
-        <v>2</v>
-      </c>
       <c r="R35" s="2">
+        <v>2</v>
+      </c>
+      <c r="S35" s="2">
         <v>3</v>
       </c>
-      <c r="S35" s="2">
+      <c r="T35" s="2">
         <v>6</v>
       </c>
-      <c r="T35" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X35" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X35" s="2" t="s">
+      <c r="Y35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="Z35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AD35" s="4" t="s">
+      <c r="AE35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK35" s="4"/>
       <c r="AL35" s="2">
         <v>2</v>
       </c>
       <c r="AM35" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN35" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>4</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP35" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>29</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K36" s="2">
-        <v>2</v>
-      </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="2">
+        <v>2</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q36" s="2">
-        <v>2</v>
-      </c>
       <c r="R36" s="2">
+        <v>2</v>
+      </c>
+      <c r="S36" s="2">
         <v>3</v>
       </c>
-      <c r="S36" s="2">
+      <c r="T36" s="2">
         <v>6</v>
       </c>
-      <c r="T36" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X36" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="X36" s="2" t="s">
+      <c r="Y36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Y36" s="2" t="s">
+      <c r="Z36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="2" t="s">
+      <c r="AC36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AD36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AD36" s="4" t="s">
+      <c r="AE36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK36" s="4"/>
       <c r="AL36" s="2">
         <v>2</v>
       </c>
       <c r="AM36" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN36" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>4</v>
       </c>
       <c r="AO36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP36" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>30</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K37" s="2">
-        <v>2</v>
-      </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="2">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q37" s="2">
-        <v>2</v>
-      </c>
       <c r="R37" s="2">
+        <v>2</v>
+      </c>
+      <c r="S37" s="2">
         <v>3</v>
       </c>
-      <c r="S37" s="2">
+      <c r="T37" s="2">
         <v>6</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="X37" s="2" t="s">
+      <c r="Y37" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Y37" s="2" t="s">
+      <c r="Z37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AB37" s="2" t="s">
+      <c r="AC37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AD37" s="4" t="s">
+      <c r="AE37" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK37" s="4"/>
       <c r="AL37" s="2">
         <v>2</v>
       </c>
       <c r="AM37" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN37" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>4</v>
       </c>
       <c r="AO37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP37" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>31</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="Q38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>5</v>
       </c>
-      <c r="R38" s="2">
-        <v>1</v>
-      </c>
       <c r="S38" s="2">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2">
         <v>5</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AG38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG38" s="2" t="s">
+      <c r="AH38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI38" s="2" t="s">
+      <c r="AJ38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AJ38" s="2" t="s">
+      <c r="AK38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AK38" s="2">
+      <c r="AL38" s="2">
         <v>5</v>
       </c>
-      <c r="AL38" s="2">
-        <v>1</v>
-      </c>
       <c r="AM38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="2">
         <v>5</v>
       </c>
-      <c r="AN38" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP38" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>32</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="R39" s="2">
         <v>5</v>
       </c>
-      <c r="R39" s="2">
-        <v>1</v>
-      </c>
       <c r="S39" s="2">
+        <v>1</v>
+      </c>
+      <c r="T39" s="2">
         <v>5</v>
       </c>
-      <c r="T39" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI39" s="2" t="s">
+      <c r="AJ39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AJ39" s="2" t="s">
+      <c r="AK39" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AK39" s="2">
+      <c r="AL39" s="2">
         <v>5</v>
       </c>
-      <c r="AL39" s="2">
-        <v>1</v>
-      </c>
       <c r="AM39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="2">
         <v>5</v>
       </c>
-      <c r="AN39" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP39" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>14</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="Q40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q40" s="2">
-        <v>2</v>
-      </c>
       <c r="R40" s="2">
+        <v>2</v>
+      </c>
+      <c r="S40" s="2">
         <v>3</v>
       </c>
-      <c r="S40" s="2">
+      <c r="T40" s="2">
         <v>6</v>
       </c>
-      <c r="T40" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK40" s="4"/>
       <c r="AL40" s="2">
         <v>2</v>
       </c>
       <c r="AM40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN40" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>4</v>
       </c>
       <c r="AO40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP40" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>15</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="R41" s="2">
         <v>3</v>
       </c>
-      <c r="R41" s="2">
-        <v>2</v>
-      </c>
       <c r="S41" s="2">
+        <v>2</v>
+      </c>
+      <c r="T41" s="2">
         <v>6</v>
       </c>
-      <c r="T41" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AE41" s="2" t="s">
+      <c r="AF41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG41" s="2" t="s">
+      <c r="AH41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH41" s="2" t="s">
+      <c r="AI41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI41" s="2" t="s">
+      <c r="AJ41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ41" s="2" t="s">
+      <c r="AK41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AK41" s="2">
+      <c r="AL41" s="2">
         <v>3</v>
       </c>
-      <c r="AL41" s="2">
-        <v>1</v>
-      </c>
       <c r="AM41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="2">
         <v>3</v>
       </c>
-      <c r="AN41" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP41" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>16</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="2">
-        <v>4</v>
-      </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="2">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="Q42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="R42" s="2">
         <v>5</v>
       </c>
-      <c r="R42" s="2">
-        <v>1</v>
-      </c>
       <c r="S42" s="2">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2">
         <v>5</v>
       </c>
-      <c r="T42" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK42" s="2">
+      <c r="AL42" s="2">
         <v>5</v>
       </c>
-      <c r="AL42" s="2">
-        <v>1</v>
-      </c>
       <c r="AM42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="2">
         <v>5</v>
       </c>
-      <c r="AN42" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP42" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ42" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>17</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <v>17</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="Q43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="R43" s="2">
         <v>5</v>
       </c>
-      <c r="R43" s="2">
-        <v>1</v>
-      </c>
       <c r="S43" s="2">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2">
         <v>5</v>
       </c>
-      <c r="T43" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK43" s="2">
+      <c r="AL43" s="2">
         <v>5</v>
       </c>
-      <c r="AL43" s="2">
-        <v>1</v>
-      </c>
       <c r="AM43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="2">
         <v>5</v>
       </c>
-      <c r="AN43" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP43" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>18</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="2">
-        <v>1</v>
-      </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="N44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="Q44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q44" s="2">
-        <v>2</v>
-      </c>
       <c r="R44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" s="2">
-        <v>2</v>
-      </c>
-      <c r="T44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T44" s="2">
+        <v>2</v>
+      </c>
+      <c r="U44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U44" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="V44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="W44" s="2" t="s">
+      <c r="X44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X44" s="2" t="s">
+      <c r="Y44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y44" s="2" t="s">
+      <c r="Z44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB44" s="2" t="s">
+      <c r="AC44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD44" s="2" t="s">
+      <c r="AE44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK44" s="4"/>
       <c r="AL44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM44" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO44" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AP44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:42" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>19</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>3</v>
       </c>
       <c r="R45" s="2">
         <v>3</v>
       </c>
       <c r="S45" s="2">
+        <v>3</v>
+      </c>
+      <c r="T45" s="2">
         <v>9</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W45" s="2" t="s">
+      <c r="X45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X45" s="2" t="s">
+      <c r="Y45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y45" s="2" t="s">
+      <c r="Z45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB45" s="2" t="s">
+      <c r="AC45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD45" s="2" t="s">
+      <c r="AE45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="2">
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="2">
         <v>3</v>
       </c>
-      <c r="AL45" s="2">
-        <v>2</v>
-      </c>
       <c r="AM45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN45" s="2">
         <v>6</v>
       </c>
-      <c r="AN45" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP45" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>20</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q46" s="2">
-        <v>4</v>
-      </c>
       <c r="R46" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S46" s="2">
+        <v>2</v>
+      </c>
+      <c r="T46" s="2">
         <v>8</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="U46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U46" s="2" t="s">
+      <c r="V46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V46" s="2" t="s">
+      <c r="W46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE46" s="2" t="s">
+      <c r="AF46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF46" s="2" t="s">
+      <c r="AG46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG46" s="2" t="s">
+      <c r="AH46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH46" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI46" s="2" t="s">
+      <c r="AJ46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AJ46" s="2" t="s">
+      <c r="AK46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AK46" s="2">
-        <v>4</v>
-      </c>
       <c r="AL46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM46" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN46" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>4</v>
       </c>
       <c r="AO46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP46" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>21</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q47" s="2">
-        <v>4</v>
-      </c>
       <c r="R47" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S47" s="2">
+        <v>2</v>
+      </c>
+      <c r="T47" s="2">
         <v>8</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="U47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U47" s="2" t="s">
+      <c r="V47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V47" s="2" t="s">
+      <c r="W47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE47" s="2" t="s">
+      <c r="AF47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF47" s="2" t="s">
+      <c r="AG47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH47" s="2" t="s">
+      <c r="AI47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI47" s="2" t="s">
+      <c r="AJ47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AJ47" s="2" t="s">
+      <c r="AK47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AK47" s="2">
-        <v>4</v>
-      </c>
       <c r="AL47" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM47" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN47" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>4</v>
       </c>
       <c r="AO47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP47" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ47" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="O48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="P48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="Q48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q48" s="2">
-        <v>4</v>
-      </c>
       <c r="R48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S48" s="2">
+        <v>2</v>
+      </c>
+      <c r="T48" s="2">
         <v>8</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="U48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="V48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V48" s="2" t="s">
+      <c r="W48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W48" s="2" t="s">
+      <c r="X48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="X48" s="2" t="s">
+      <c r="Y48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y48" s="2" t="s">
+      <c r="Z48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB48" s="2" t="s">
+      <c r="AC48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC48" s="2" t="s">
+      <c r="AD48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD48" s="2" t="s">
+      <c r="AE48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE48" s="2" t="s">
+      <c r="AF48" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF48" s="2" t="s">
+      <c r="AG48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG48" s="2" t="s">
+      <c r="AH48" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH48" s="2" t="s">
+      <c r="AI48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI48" s="2" t="s">
+      <c r="AJ48" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ48" s="2" t="s">
+      <c r="AK48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK48" s="2">
-        <v>4</v>
-      </c>
       <c r="AL48" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM48" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN48" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>4</v>
       </c>
       <c r="AO48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP48" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ48" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>23</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q49" s="2">
-        <v>4</v>
-      </c>
       <c r="R49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S49" s="2">
+        <v>2</v>
+      </c>
+      <c r="T49" s="2">
         <v>8</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="U49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="V49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="W49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W49" s="2" t="s">
+      <c r="X49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X49" s="2" t="s">
+      <c r="Y49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Y49" s="2" t="s">
+      <c r="Z49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB49" s="2" t="s">
+      <c r="AC49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD49" s="2" t="s">
+      <c r="AE49" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE49" s="2" t="s">
+      <c r="AF49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF49" s="2" t="s">
+      <c r="AG49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG49" s="2" t="s">
+      <c r="AH49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH49" s="2" t="s">
+      <c r="AI49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI49" s="2" t="s">
+      <c r="AJ49" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ49" s="2" t="s">
+      <c r="AK49" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK49" s="2">
-        <v>4</v>
-      </c>
       <c r="AL49" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM49" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN49" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>4</v>
       </c>
       <c r="AO49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP49" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ49" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>24</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="N50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="O50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="P50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="Q50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q50" s="2">
-        <v>4</v>
-      </c>
       <c r="R50" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S50" s="2">
+        <v>2</v>
+      </c>
+      <c r="T50" s="2">
         <v>8</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="U50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U50" s="2" t="s">
+      <c r="V50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V50" s="2" t="s">
+      <c r="W50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W50" s="2" t="s">
+      <c r="X50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="X50" s="2" t="s">
+      <c r="Y50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y50" s="2" t="s">
+      <c r="Z50" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AB50" s="2" t="s">
+      <c r="AC50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC50" s="2" t="s">
+      <c r="AD50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AD50" s="2" t="s">
+      <c r="AE50" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE50" s="2" t="s">
+      <c r="AF50" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF50" s="2" t="s">
+      <c r="AG50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG50" s="2" t="s">
+      <c r="AH50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH50" s="2" t="s">
+      <c r="AI50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI50" s="2" t="s">
+      <c r="AJ50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ50" s="2" t="s">
+      <c r="AK50" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK50" s="2">
-        <v>4</v>
-      </c>
       <c r="AL50" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM50" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN50" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>4</v>
       </c>
       <c r="AO50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP50" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>25</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K51" s="2">
-        <v>1</v>
-      </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q51" s="2">
-        <v>4</v>
-      </c>
       <c r="R51" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S51" s="2">
+        <v>2</v>
+      </c>
+      <c r="T51" s="2">
         <v>8</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="U51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U51" s="2" t="s">
+      <c r="V51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V51" s="2" t="s">
+      <c r="W51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AD51" s="2" t="s">
+      <c r="AE51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="2">
-        <v>4</v>
-      </c>
+      <c r="AK51" s="4"/>
       <c r="AL51" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM51" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN51" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>4</v>
       </c>
       <c r="AO51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP51" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>26</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K52" s="2">
-        <v>2</v>
-      </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="2">
+        <v>2</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="N52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="O52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="P52" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="Q52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q52" s="2">
-        <v>2</v>
-      </c>
       <c r="R52" s="2">
+        <v>2</v>
+      </c>
+      <c r="S52" s="2">
         <v>3</v>
       </c>
-      <c r="S52" s="2">
+      <c r="T52" s="2">
         <v>6</v>
       </c>
-      <c r="T52" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="X52" s="2" t="s">
+      <c r="Y52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Y52" s="2" t="s">
+      <c r="Z52" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AB52" s="2" t="s">
+      <c r="AC52" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AC52" s="2" t="s">
+      <c r="AD52" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AD52" s="2" t="s">
+      <c r="AE52" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AJ52" s="4"/>
-      <c r="AK52" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK52" s="4"/>
       <c r="AL52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM52" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO52" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AP52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ52" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>27</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="2">
-        <v>2</v>
-      </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="2">
+        <v>2</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="N53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="O53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="P53" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="Q53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q53" s="2">
-        <v>2</v>
-      </c>
       <c r="R53" s="2">
+        <v>2</v>
+      </c>
+      <c r="S53" s="2">
         <v>3</v>
       </c>
-      <c r="S53" s="2">
+      <c r="T53" s="2">
         <v>6</v>
       </c>
-      <c r="T53" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="X53" s="2" t="s">
+      <c r="Y53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Y53" s="2" t="s">
+      <c r="Z53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AB53" s="2" t="s">
+      <c r="AC53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AC53" s="2" t="s">
+      <c r="AD53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AD53" s="4" t="s">
+      <c r="AE53" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK53" s="4"/>
       <c r="AL53" s="2">
         <v>2</v>
       </c>
       <c r="AM53" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN53" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>4</v>
       </c>
       <c r="AO53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP53" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ53" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>28</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K54" s="2">
-        <v>2</v>
-      </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="2">
+        <v>2</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="O54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="P54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="Q54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q54" s="2">
-        <v>2</v>
-      </c>
       <c r="R54" s="2">
+        <v>2</v>
+      </c>
+      <c r="S54" s="2">
         <v>3</v>
       </c>
-      <c r="S54" s="2">
+      <c r="T54" s="2">
         <v>6</v>
       </c>
-      <c r="T54" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X54" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X54" s="2" t="s">
+      <c r="Y54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y54" s="2" t="s">
+      <c r="Z54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AD54" s="4" t="s">
+      <c r="AE54" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ54" s="4"/>
-      <c r="AK54" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK54" s="4"/>
       <c r="AL54" s="2">
         <v>2</v>
       </c>
       <c r="AM54" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN54" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>4</v>
       </c>
       <c r="AO54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP54" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ54" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>29</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="2">
-        <v>2</v>
-      </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="2">
+        <v>2</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="O55" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="P55" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="Q55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q55" s="2">
-        <v>2</v>
-      </c>
       <c r="R55" s="2">
+        <v>2</v>
+      </c>
+      <c r="S55" s="2">
         <v>3</v>
       </c>
-      <c r="S55" s="2">
+      <c r="T55" s="2">
         <v>6</v>
       </c>
-      <c r="T55" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="X55" s="2" t="s">
+      <c r="Y55" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Y55" s="2" t="s">
+      <c r="Z55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB55" s="2" t="s">
+      <c r="AC55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC55" s="2" t="s">
+      <c r="AD55" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AD55" s="4" t="s">
+      <c r="AE55" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK55" s="4"/>
       <c r="AL55" s="2">
         <v>2</v>
       </c>
       <c r="AM55" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN55" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>4</v>
       </c>
       <c r="AO55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP55" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>30</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K56" s="2">
-        <v>2</v>
-      </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="2">
+        <v>2</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="N56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="O56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="P56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="Q56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q56" s="2">
-        <v>2</v>
-      </c>
       <c r="R56" s="2">
+        <v>2</v>
+      </c>
+      <c r="S56" s="2">
         <v>3</v>
       </c>
-      <c r="S56" s="2">
+      <c r="T56" s="2">
         <v>6</v>
       </c>
-      <c r="T56" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="X56" s="2" t="s">
+      <c r="Y56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Y56" s="2" t="s">
+      <c r="Z56" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AB56" s="2" t="s">
+      <c r="AC56" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AD56" s="4" t="s">
+      <c r="AE56" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ56" s="4"/>
-      <c r="AK56" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK56" s="4"/>
       <c r="AL56" s="2">
         <v>2</v>
       </c>
       <c r="AM56" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN56" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>4</v>
       </c>
       <c r="AO56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP56" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ56" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>31</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="P57" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="Q57" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="R57" s="2">
         <v>5</v>
       </c>
-      <c r="R57" s="2">
-        <v>1</v>
-      </c>
       <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2">
         <v>5</v>
       </c>
-      <c r="T57" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AF57" s="2" t="s">
+      <c r="AG57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG57" s="2" t="s">
+      <c r="AH57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH57" s="2" t="s">
+      <c r="AI57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI57" s="2" t="s">
+      <c r="AJ57" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AJ57" s="2" t="s">
+      <c r="AK57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AK57" s="2">
+      <c r="AL57" s="2">
         <v>5</v>
       </c>
-      <c r="AL57" s="2">
-        <v>1</v>
-      </c>
       <c r="AM57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN57" s="2">
         <v>5</v>
       </c>
-      <c r="AN57" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP57" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ57" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>32</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="P58" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="R58" s="2">
         <v>5</v>
       </c>
-      <c r="R58" s="2">
-        <v>1</v>
-      </c>
       <c r="S58" s="2">
+        <v>1</v>
+      </c>
+      <c r="T58" s="2">
         <v>5</v>
       </c>
-      <c r="T58" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AF58" s="2" t="s">
+      <c r="AG58" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG58" s="2" t="s">
+      <c r="AH58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH58" s="2" t="s">
+      <c r="AI58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI58" s="2" t="s">
+      <c r="AJ58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AJ58" s="2" t="s">
+      <c r="AK58" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AK58" s="2">
+      <c r="AL58" s="2">
         <v>5</v>
       </c>
-      <c r="AL58" s="2">
-        <v>1</v>
-      </c>
       <c r="AM58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="2">
         <v>5</v>
       </c>
-      <c r="AN58" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP58" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ58" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>14</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="N59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="O59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="P59" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="Q59" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q59" s="2">
-        <v>2</v>
-      </c>
       <c r="R59" s="2">
+        <v>2</v>
+      </c>
+      <c r="S59" s="2">
         <v>3</v>
       </c>
-      <c r="S59" s="2">
+      <c r="T59" s="2">
         <v>6</v>
       </c>
-      <c r="T59" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK59" s="4"/>
       <c r="AL59" s="2">
         <v>2</v>
       </c>
       <c r="AM59" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN59" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>4</v>
       </c>
       <c r="AO59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP59" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ59" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>15</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="O60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="P60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="Q60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="R60" s="2">
         <v>3</v>
       </c>
-      <c r="R60" s="2">
-        <v>2</v>
-      </c>
       <c r="S60" s="2">
+        <v>2</v>
+      </c>
+      <c r="T60" s="2">
         <v>6</v>
       </c>
-      <c r="T60" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AE60" s="2" t="s">
+      <c r="AF60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF60" s="2" t="s">
+      <c r="AG60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG60" s="2" t="s">
+      <c r="AH60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH60" s="2" t="s">
+      <c r="AI60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI60" s="2" t="s">
+      <c r="AJ60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ60" s="2" t="s">
+      <c r="AK60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AK60" s="2">
+      <c r="AL60" s="2">
         <v>3</v>
       </c>
-      <c r="AL60" s="2">
-        <v>1</v>
-      </c>
       <c r="AM60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="2">
         <v>3</v>
       </c>
-      <c r="AN60" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP60" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ60" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>16</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K61" s="2">
-        <v>4</v>
-      </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="2">
+        <v>4</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M61" s="2" t="s">
+      <c r="N61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="O61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="P61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="Q61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="R61" s="2">
         <v>5</v>
       </c>
-      <c r="R61" s="2">
-        <v>1</v>
-      </c>
       <c r="S61" s="2">
+        <v>1</v>
+      </c>
+      <c r="T61" s="2">
         <v>5</v>
       </c>
-      <c r="T61" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK61" s="2">
+      <c r="AL61" s="2">
         <v>5</v>
       </c>
-      <c r="AL61" s="2">
-        <v>1</v>
-      </c>
       <c r="AM61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN61" s="2">
         <v>5</v>
       </c>
-      <c r="AN61" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP61" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:42" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ61" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>17</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K62" s="2">
+      <c r="L62" s="2">
         <v>17</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="P62" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="Q62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="R62" s="2">
         <v>5</v>
       </c>
-      <c r="R62" s="2">
-        <v>1</v>
-      </c>
       <c r="S62" s="2">
+        <v>1</v>
+      </c>
+      <c r="T62" s="2">
         <v>5</v>
       </c>
-      <c r="T62" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK62" s="2">
+      <c r="AL62" s="2">
         <v>5</v>
       </c>
-      <c r="AL62" s="2">
-        <v>1</v>
-      </c>
       <c r="AM62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="2">
         <v>5</v>
       </c>
-      <c r="AN62" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP62" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ62" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>18</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="2">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="P63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="Q63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q63" s="2">
-        <v>2</v>
-      </c>
       <c r="R63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S63" s="2">
-        <v>2</v>
-      </c>
-      <c r="T63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2">
+        <v>2</v>
+      </c>
+      <c r="U63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U63" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="V63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="W63" s="2" t="s">
+      <c r="X63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X63" s="2" t="s">
+      <c r="Y63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y63" s="2" t="s">
+      <c r="Z63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB63" s="2" t="s">
+      <c r="AC63" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD63" s="2" t="s">
+      <c r="AE63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK63" s="4"/>
       <c r="AL63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM63" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO63" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AP63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ63" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:42" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>19</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="O64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="P64" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="Q64" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>3</v>
       </c>
       <c r="R64" s="2">
         <v>3</v>
       </c>
       <c r="S64" s="2">
+        <v>3</v>
+      </c>
+      <c r="T64" s="2">
         <v>9</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="U64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U64" s="2" t="s">
+      <c r="V64" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V64" s="2" t="s">
+      <c r="W64" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W64" s="2" t="s">
+      <c r="X64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X64" s="2" t="s">
+      <c r="Y64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y64" s="2" t="s">
+      <c r="Z64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB64" s="2" t="s">
+      <c r="AC64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD64" s="2" t="s">
+      <c r="AE64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ64" s="4"/>
-      <c r="AK64" s="2">
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="2">
         <v>3</v>
       </c>
-      <c r="AL64" s="2">
-        <v>2</v>
-      </c>
       <c r="AM64" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN64" s="2">
         <v>6</v>
       </c>
-      <c r="AN64" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP64" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:42" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ64" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>20</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q65" s="2">
-        <v>4</v>
-      </c>
       <c r="R65" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S65" s="2">
+        <v>2</v>
+      </c>
+      <c r="T65" s="2">
         <v>8</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="U65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U65" s="2" t="s">
+      <c r="V65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V65" s="2" t="s">
+      <c r="W65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE65" s="2" t="s">
+      <c r="AF65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF65" s="2" t="s">
+      <c r="AG65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG65" s="2" t="s">
+      <c r="AH65" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH65" s="2" t="s">
+      <c r="AI65" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI65" s="2" t="s">
+      <c r="AJ65" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AJ65" s="2" t="s">
+      <c r="AK65" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AK65" s="2">
-        <v>4</v>
-      </c>
       <c r="AL65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM65" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN65" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>4</v>
       </c>
       <c r="AO65" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP65" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ65" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>21</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q66" s="2">
-        <v>4</v>
-      </c>
       <c r="R66" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S66" s="2">
+        <v>2</v>
+      </c>
+      <c r="T66" s="2">
         <v>8</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="U66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U66" s="2" t="s">
+      <c r="V66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V66" s="2" t="s">
+      <c r="W66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AE66" s="2" t="s">
+      <c r="AF66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF66" s="2" t="s">
+      <c r="AG66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG66" s="2" t="s">
+      <c r="AH66" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH66" s="2" t="s">
+      <c r="AI66" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI66" s="2" t="s">
+      <c r="AJ66" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AJ66" s="2" t="s">
+      <c r="AK66" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AK66" s="2">
-        <v>4</v>
-      </c>
       <c r="AL66" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM66" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN66" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>4</v>
       </c>
       <c r="AO66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP66" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>22</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="N67" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="O67" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="P67" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="Q67" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q67" s="2">
-        <v>4</v>
-      </c>
       <c r="R67" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S67" s="2">
+        <v>2</v>
+      </c>
+      <c r="T67" s="2">
         <v>8</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="U67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U67" s="2" t="s">
+      <c r="V67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V67" s="2" t="s">
+      <c r="W67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W67" s="2" t="s">
+      <c r="X67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="X67" s="2" t="s">
+      <c r="Y67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y67" s="2" t="s">
+      <c r="Z67" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB67" s="2" t="s">
+      <c r="AC67" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC67" s="2" t="s">
+      <c r="AD67" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD67" s="2" t="s">
+      <c r="AE67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE67" s="2" t="s">
+      <c r="AF67" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF67" s="2" t="s">
+      <c r="AG67" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG67" s="2" t="s">
+      <c r="AH67" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH67" s="2" t="s">
+      <c r="AI67" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI67" s="2" t="s">
+      <c r="AJ67" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ67" s="2" t="s">
+      <c r="AK67" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK67" s="2">
-        <v>4</v>
-      </c>
       <c r="AL67" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM67" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN67" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>4</v>
       </c>
       <c r="AO67" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP67" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ67" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>23</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="N68" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="O68" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="P68" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="Q68" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q68" s="2">
-        <v>4</v>
-      </c>
       <c r="R68" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S68" s="2">
+        <v>2</v>
+      </c>
+      <c r="T68" s="2">
         <v>8</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="U68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U68" s="2" t="s">
+      <c r="V68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V68" s="2" t="s">
+      <c r="W68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W68" s="2" t="s">
+      <c r="X68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X68" s="2" t="s">
+      <c r="Y68" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Y68" s="2" t="s">
+      <c r="Z68" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB68" s="2" t="s">
+      <c r="AC68" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD68" s="2" t="s">
+      <c r="AE68" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE68" s="2" t="s">
+      <c r="AF68" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF68" s="2" t="s">
+      <c r="AG68" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG68" s="2" t="s">
+      <c r="AH68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH68" s="2" t="s">
+      <c r="AI68" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI68" s="2" t="s">
+      <c r="AJ68" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ68" s="2" t="s">
+      <c r="AK68" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK68" s="2">
-        <v>4</v>
-      </c>
       <c r="AL68" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM68" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN68" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>4</v>
       </c>
       <c r="AO68" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP68" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:42" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ68" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>24</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="O69" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="P69" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q69" s="2">
-        <v>4</v>
-      </c>
       <c r="R69" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S69" s="2">
+        <v>2</v>
+      </c>
+      <c r="T69" s="2">
         <v>8</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="U69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U69" s="2" t="s">
+      <c r="V69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V69" s="2" t="s">
+      <c r="W69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="W69" s="2" t="s">
+      <c r="X69" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="X69" s="2" t="s">
+      <c r="Y69" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y69" s="2" t="s">
+      <c r="Z69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AB69" s="2" t="s">
+      <c r="AC69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC69" s="2" t="s">
+      <c r="AD69" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AD69" s="2" t="s">
+      <c r="AE69" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE69" s="2" t="s">
+      <c r="AF69" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF69" s="2" t="s">
+      <c r="AG69" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG69" s="2" t="s">
+      <c r="AH69" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AH69" s="2" t="s">
+      <c r="AI69" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI69" s="2" t="s">
+      <c r="AJ69" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ69" s="2" t="s">
+      <c r="AK69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK69" s="2">
-        <v>4</v>
-      </c>
       <c r="AL69" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM69" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN69" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN69" s="2">
+        <v>4</v>
       </c>
       <c r="AO69" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP69" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:42" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ69" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>25</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="P70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="Q70" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q70" s="2">
-        <v>4</v>
-      </c>
       <c r="R70" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S70" s="2">
+        <v>2</v>
+      </c>
+      <c r="T70" s="2">
         <v>8</v>
       </c>
-      <c r="T70" s="2" t="s">
+      <c r="U70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U70" s="2" t="s">
+      <c r="V70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V70" s="2" t="s">
+      <c r="W70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AD70" s="2" t="s">
+      <c r="AE70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AJ70" s="4"/>
-      <c r="AK70" s="2">
-        <v>4</v>
-      </c>
+      <c r="AK70" s="4"/>
       <c r="AL70" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM70" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN70" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="AN70" s="2">
+        <v>4</v>
       </c>
       <c r="AO70" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP70" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ70" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K71" s="2">
-        <v>2</v>
-      </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="2">
+        <v>2</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="P71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="Q71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q71" s="2">
-        <v>2</v>
-      </c>
       <c r="R71" s="2">
+        <v>2</v>
+      </c>
+      <c r="S71" s="2">
         <v>3</v>
       </c>
-      <c r="S71" s="2">
+      <c r="T71" s="2">
         <v>6</v>
       </c>
-      <c r="T71" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U71" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="X71" s="2" t="s">
+      <c r="Y71" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Y71" s="2" t="s">
+      <c r="Z71" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AB71" s="2" t="s">
+      <c r="AC71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AC71" s="2" t="s">
+      <c r="AD71" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AD71" s="2" t="s">
+      <c r="AE71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AJ71" s="4"/>
-      <c r="AK71" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK71" s="4"/>
       <c r="AL71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM71" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO71" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO71" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AP71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ71" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>27</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K72" s="2">
-        <v>2</v>
-      </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="2">
+        <v>2</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="N72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="O72" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="P72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="Q72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q72" s="2">
-        <v>2</v>
-      </c>
       <c r="R72" s="2">
+        <v>2</v>
+      </c>
+      <c r="S72" s="2">
         <v>3</v>
       </c>
-      <c r="S72" s="2">
+      <c r="T72" s="2">
         <v>6</v>
       </c>
-      <c r="T72" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U72" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X72" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="X72" s="2" t="s">
+      <c r="Y72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Y72" s="2" t="s">
+      <c r="Z72" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AB72" s="2" t="s">
+      <c r="AC72" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AC72" s="2" t="s">
+      <c r="AD72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AD72" s="4" t="s">
+      <c r="AE72" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ72" s="4"/>
-      <c r="AK72" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK72" s="4"/>
       <c r="AL72" s="2">
         <v>2</v>
       </c>
       <c r="AM72" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN72" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN72" s="2">
+        <v>4</v>
       </c>
       <c r="AO72" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP72" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:42" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ72" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>28</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K73" s="2">
-        <v>2</v>
-      </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" s="2">
+        <v>2</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="P73" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="Q73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q73" s="2">
-        <v>2</v>
-      </c>
       <c r="R73" s="2">
+        <v>2</v>
+      </c>
+      <c r="S73" s="2">
         <v>3</v>
       </c>
-      <c r="S73" s="2">
+      <c r="T73" s="2">
         <v>6</v>
       </c>
-      <c r="T73" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X73" s="2" t="s">
+      <c r="Y73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y73" s="2" t="s">
+      <c r="Z73" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AD73" s="4" t="s">
+      <c r="AE73" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ73" s="4"/>
-      <c r="AK73" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK73" s="4"/>
       <c r="AL73" s="2">
         <v>2</v>
       </c>
       <c r="AM73" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN73" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>4</v>
       </c>
       <c r="AO73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP73" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:42" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ73" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>29</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K74" s="2">
-        <v>2</v>
-      </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" s="2">
+        <v>2</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="N74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="O74" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="P74" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="Q74" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q74" s="2">
-        <v>2</v>
-      </c>
       <c r="R74" s="2">
+        <v>2</v>
+      </c>
+      <c r="S74" s="2">
         <v>3</v>
       </c>
-      <c r="S74" s="2">
+      <c r="T74" s="2">
         <v>6</v>
       </c>
-      <c r="T74" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="X74" s="2" t="s">
+      <c r="Y74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Y74" s="2" t="s">
+      <c r="Z74" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB74" s="2" t="s">
+      <c r="AC74" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC74" s="2" t="s">
+      <c r="AD74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AD74" s="4" t="s">
+      <c r="AE74" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ74" s="4"/>
-      <c r="AK74" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK74" s="4"/>
       <c r="AL74" s="2">
         <v>2</v>
       </c>
       <c r="AM74" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN74" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN74" s="2">
+        <v>4</v>
       </c>
       <c r="AO74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP74" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:42" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ74" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>30</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K75" s="2">
-        <v>2</v>
-      </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" s="2">
+        <v>2</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="N75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="O75" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="P75" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="Q75" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q75" s="2">
-        <v>2</v>
-      </c>
       <c r="R75" s="2">
+        <v>2</v>
+      </c>
+      <c r="S75" s="2">
         <v>3</v>
       </c>
-      <c r="S75" s="2">
+      <c r="T75" s="2">
         <v>6</v>
       </c>
-      <c r="T75" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="X75" s="2" t="s">
+      <c r="Y75" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Y75" s="2" t="s">
+      <c r="Z75" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AB75" s="2" t="s">
+      <c r="AC75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AD75" s="4" t="s">
+      <c r="AE75" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AJ75" s="4"/>
-      <c r="AK75" s="2">
-        <v>2</v>
-      </c>
+      <c r="AK75" s="4"/>
       <c r="AL75" s="2">
         <v>2</v>
       </c>
       <c r="AM75" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN75" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="AN75" s="2">
+        <v>4</v>
       </c>
       <c r="AO75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP75" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:42" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ75" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>31</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="N76" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="O76" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O76" s="2" t="s">
+      <c r="P76" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="Q76" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="R76" s="2">
         <v>5</v>
       </c>
-      <c r="R76" s="2">
-        <v>1</v>
-      </c>
       <c r="S76" s="2">
+        <v>1</v>
+      </c>
+      <c r="T76" s="2">
         <v>5</v>
       </c>
-      <c r="T76" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF76" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AF76" s="2" t="s">
+      <c r="AG76" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG76" s="2" t="s">
+      <c r="AH76" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH76" s="2" t="s">
+      <c r="AI76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI76" s="2" t="s">
+      <c r="AJ76" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AJ76" s="2" t="s">
+      <c r="AK76" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AK76" s="2">
+      <c r="AL76" s="2">
         <v>5</v>
       </c>
-      <c r="AL76" s="2">
-        <v>1</v>
-      </c>
       <c r="AM76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN76" s="2">
         <v>5</v>
       </c>
-      <c r="AN76" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP76" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:42" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="AQ76" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>32</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M77" s="2" t="s">
+      <c r="N77" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="O77" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="P77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="Q77" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="R77" s="2">
         <v>5</v>
       </c>
-      <c r="R77" s="2">
-        <v>1</v>
-      </c>
       <c r="S77" s="2">
+        <v>1</v>
+      </c>
+      <c r="T77" s="2">
         <v>5</v>
       </c>
-      <c r="T77" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AF77" s="2" t="s">
+      <c r="AG77" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG77" s="2" t="s">
+      <c r="AH77" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH77" s="2" t="s">
+      <c r="AI77" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI77" s="2" t="s">
+      <c r="AJ77" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AJ77" s="2" t="s">
+      <c r="AK77" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AK77" s="2">
+      <c r="AL77" s="2">
         <v>5</v>
       </c>
-      <c r="AL77" s="2">
-        <v>1</v>
-      </c>
       <c r="AM77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="2">
         <v>5</v>
       </c>
-      <c r="AN77" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AO77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ77" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7563,7 +7559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC02126-928A-4926-925B-0A8BDC9F86CF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
